--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H2">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I2">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J2">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N2">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O2">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P2">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q2">
-        <v>119.6064908656829</v>
+        <v>99.69798604054978</v>
       </c>
       <c r="R2">
-        <v>1076.458417791146</v>
+        <v>897.281874364948</v>
       </c>
       <c r="S2">
-        <v>0.007222994041467889</v>
+        <v>0.006628634466654047</v>
       </c>
       <c r="T2">
-        <v>0.00784119351023042</v>
+        <v>0.006947850624836912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H3">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I3">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J3">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O3">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P3">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q3">
-        <v>288.8139685413839</v>
+        <v>322.618170601848</v>
       </c>
       <c r="R3">
-        <v>2599.325716872456</v>
+        <v>2903.563535416632</v>
       </c>
       <c r="S3">
-        <v>0.01744137428302103</v>
+        <v>0.0214499611291094</v>
       </c>
       <c r="T3">
-        <v>0.0189341414449971</v>
+        <v>0.02248293016960356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H4">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I4">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J4">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N4">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O4">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P4">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q4">
-        <v>154.7454687447529</v>
+        <v>163.7823763376982</v>
       </c>
       <c r="R4">
-        <v>1392.709218702776</v>
+        <v>1474.041387039284</v>
       </c>
       <c r="S4">
-        <v>0.009345024593545699</v>
+        <v>0.0108894226246557</v>
       </c>
       <c r="T4">
-        <v>0.01014484378294776</v>
+        <v>0.01141382620620163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H5">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I5">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J5">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N5">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O5">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P5">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q5">
-        <v>153.5512800081173</v>
+        <v>105.351461494578</v>
       </c>
       <c r="R5">
-        <v>921.3076800487039</v>
+        <v>632.108768967468</v>
       </c>
       <c r="S5">
-        <v>0.009272907954501475</v>
+        <v>0.007004517909632646</v>
       </c>
       <c r="T5">
-        <v>0.006711036564279967</v>
+        <v>0.004894557029298973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.069328666666665</v>
+        <v>10.13084733333333</v>
       </c>
       <c r="H6">
-        <v>27.207986</v>
+        <v>30.392542</v>
       </c>
       <c r="I6">
-        <v>0.05418223520138252</v>
+        <v>0.06120524725024945</v>
       </c>
       <c r="J6">
-        <v>0.05546404997331413</v>
+        <v>0.0617054391363504</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N6">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O6">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P6">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q6">
-        <v>180.4934198000209</v>
+        <v>229.107613077928</v>
       </c>
       <c r="R6">
-        <v>1624.440778200188</v>
+        <v>2061.968517701352</v>
       </c>
       <c r="S6">
-        <v>0.01089993432884643</v>
+        <v>0.01523271112019766</v>
       </c>
       <c r="T6">
-        <v>0.01183283467085888</v>
+        <v>0.01596627510640934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>404.979507</v>
       </c>
       <c r="I7">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J7">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N7">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O7">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P7">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q7">
-        <v>1780.292657633103</v>
+        <v>1328.472005914962</v>
       </c>
       <c r="R7">
-        <v>16022.63391869793</v>
+        <v>11956.24805323466</v>
       </c>
       <c r="S7">
-        <v>0.1075112493066412</v>
+        <v>0.08832631105317758</v>
       </c>
       <c r="T7">
-        <v>0.1167128901810195</v>
+        <v>0.09257985464842312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>404.979507</v>
       </c>
       <c r="I8">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J8">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O8">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P8">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q8">
         <v>4298.875285903307</v>
@@ -948,10 +948,10 @@
         <v>38689.87757312977</v>
       </c>
       <c r="S8">
-        <v>0.2596075710469836</v>
+        <v>0.2858199450126906</v>
       </c>
       <c r="T8">
-        <v>0.2818267867332478</v>
+        <v>0.2995842195760222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>404.979507</v>
       </c>
       <c r="I9">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J9">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N9">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O9">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P9">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q9">
-        <v>2303.321666026068</v>
+        <v>2182.394155267746</v>
       </c>
       <c r="R9">
-        <v>20729.89499423462</v>
+        <v>19641.54739740971</v>
       </c>
       <c r="S9">
-        <v>0.1390967877150853</v>
+        <v>0.1451011569235542</v>
       </c>
       <c r="T9">
-        <v>0.1510017622697321</v>
+        <v>0.1520888154064644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>404.979507</v>
       </c>
       <c r="I10">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J10">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N10">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O10">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P10">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q10">
-        <v>2285.546665486608</v>
+        <v>1403.804358905013</v>
       </c>
       <c r="R10">
-        <v>13713.27999291965</v>
+        <v>8422.826153430078</v>
       </c>
       <c r="S10">
-        <v>0.1380233616655928</v>
+        <v>0.09333494413911476</v>
       </c>
       <c r="T10">
-        <v>0.09989097610021834</v>
+        <v>0.06521979282644021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>404.979507</v>
       </c>
       <c r="I11">
-        <v>0.8064799393830157</v>
+        <v>0.8155576738931257</v>
       </c>
       <c r="J11">
-        <v>0.8255592168569963</v>
+        <v>0.8222227124225968</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N11">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O11">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P11">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q11">
-        <v>2686.569162721434</v>
+        <v>3052.850537945988</v>
       </c>
       <c r="R11">
-        <v>24179.12246449291</v>
+        <v>27475.6548415139</v>
       </c>
       <c r="S11">
-        <v>0.1622409696487128</v>
+        <v>0.2029753167645886</v>
       </c>
       <c r="T11">
-        <v>0.1761268015727786</v>
+        <v>0.212750029965247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H12">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I12">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J12">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N12">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O12">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P12">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q12">
-        <v>56.88811266628011</v>
+        <v>46.71019607650821</v>
       </c>
       <c r="R12">
-        <v>511.9930139965209</v>
+        <v>420.391764688574</v>
       </c>
       <c r="S12">
-        <v>0.003435453175198789</v>
+        <v>0.003105627585405571</v>
       </c>
       <c r="T12">
-        <v>0.00372948572121413</v>
+        <v>0.003255185765381712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H13">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I13">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J13">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O13">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P13">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q13">
-        <v>137.367808912884</v>
+        <v>151.152080449524</v>
       </c>
       <c r="R13">
-        <v>1236.310280215956</v>
+        <v>1360.368724045716</v>
       </c>
       <c r="S13">
-        <v>0.008295593810050836</v>
+        <v>0.01004967030895356</v>
       </c>
       <c r="T13">
-        <v>0.009005594629240348</v>
+        <v>0.01053363381051136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H14">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I14">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J14">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N14">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O14">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P14">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q14">
-        <v>73.60116994347511</v>
+        <v>76.73481899121576</v>
       </c>
       <c r="R14">
-        <v>662.4105294912761</v>
+        <v>690.6133709209419</v>
       </c>
       <c r="S14">
-        <v>0.004444748843470311</v>
+        <v>0.005101879046490992</v>
       </c>
       <c r="T14">
-        <v>0.004825164687376754</v>
+        <v>0.005347571011695492</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H15">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I15">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J15">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N15">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O15">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P15">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q15">
-        <v>73.03318117545066</v>
+        <v>49.35894513813899</v>
       </c>
       <c r="R15">
-        <v>438.199087052704</v>
+        <v>296.153670828834</v>
       </c>
       <c r="S15">
-        <v>0.004410448200943573</v>
+        <v>0.003281735348668735</v>
       </c>
       <c r="T15">
-        <v>0.003191952221096579</v>
+        <v>0.002293182917990124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.313620333333334</v>
+        <v>4.746473666666666</v>
       </c>
       <c r="H16">
-        <v>12.940861</v>
+        <v>14.239421</v>
       </c>
       <c r="I16">
-        <v>0.02577055039687239</v>
+        <v>0.02867569560339488</v>
       </c>
       <c r="J16">
-        <v>0.02638021649973327</v>
+        <v>0.02891004397895937</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N16">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O16">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P16">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q16">
-        <v>85.84759846049313</v>
+        <v>107.340799493564</v>
       </c>
       <c r="R16">
-        <v>772.6283861444381</v>
+        <v>966.067195442076</v>
       </c>
       <c r="S16">
-        <v>0.005184306367208875</v>
+        <v>0.007136783313876015</v>
       </c>
       <c r="T16">
-        <v>0.00562801924080546</v>
+        <v>0.007480470473380686</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H17">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I17">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J17">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N17">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O17">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P17">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q17">
-        <v>153.0498047986948</v>
+        <v>39.612493282124</v>
       </c>
       <c r="R17">
-        <v>918.2988287921689</v>
+        <v>237.674959692744</v>
       </c>
       <c r="S17">
-        <v>0.009242624042454678</v>
+        <v>0.002633721589653699</v>
       </c>
       <c r="T17">
-        <v>0.006689119335935558</v>
+        <v>0.001840369413879055</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H18">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I18">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J18">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O18">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P18">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q18">
-        <v>369.5695876408139</v>
+        <v>128.184235441416</v>
       </c>
       <c r="R18">
-        <v>2217.417525844884</v>
+        <v>769.1054126484959</v>
       </c>
       <c r="S18">
-        <v>0.02231817780219852</v>
+        <v>0.008522603864666609</v>
       </c>
       <c r="T18">
-        <v>0.01615222625022898</v>
+        <v>0.005955352130139999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H19">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I19">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J19">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N19">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O19">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P19">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q19">
-        <v>198.0140343007274</v>
+        <v>65.074817858092</v>
       </c>
       <c r="R19">
-        <v>1188.084205804364</v>
+        <v>390.448907148552</v>
       </c>
       <c r="S19">
-        <v>0.01195799809466307</v>
+        <v>0.004326638858982955</v>
       </c>
       <c r="T19">
-        <v>0.008654303789343334</v>
+        <v>0.003023331643045759</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H20">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I20">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J20">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N20">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O20">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P20">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q20">
-        <v>196.485937023464</v>
+        <v>41.858759905326</v>
       </c>
       <c r="R20">
-        <v>785.943748093856</v>
+        <v>167.435039621304</v>
       </c>
       <c r="S20">
-        <v>0.01186571683594065</v>
+        <v>0.002783069444622358</v>
       </c>
       <c r="T20">
-        <v>0.005725011681923982</v>
+        <v>0.001296486285846136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.6052145</v>
+        <v>4.025238</v>
       </c>
       <c r="H21">
-        <v>23.210429</v>
+        <v>8.050476</v>
       </c>
       <c r="I21">
-        <v>0.06933219477562524</v>
+        <v>0.02431836932538577</v>
       </c>
       <c r="J21">
-        <v>0.04731494620579633</v>
+        <v>0.01634473868084643</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N21">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O21">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P21">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q21">
-        <v>230.9614007392304</v>
+        <v>91.03016163477601</v>
       </c>
       <c r="R21">
-        <v>1385.768404435382</v>
+        <v>546.1809698086561</v>
       </c>
       <c r="S21">
-        <v>0.01394767800036831</v>
+        <v>0.006052335567460152</v>
       </c>
       <c r="T21">
-        <v>0.01009428514836447</v>
+        <v>0.004229199207935482</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H22">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I22">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J22">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.18802033333333</v>
+        <v>9.841031333333333</v>
       </c>
       <c r="N22">
-        <v>39.564061</v>
+        <v>29.523094</v>
       </c>
       <c r="O22">
-        <v>0.1333092666742473</v>
+        <v>0.1083017349730097</v>
       </c>
       <c r="P22">
-        <v>0.1413743409290003</v>
+        <v>0.1125970533891552</v>
       </c>
       <c r="Q22">
-        <v>97.64829194245921</v>
+        <v>114.4197162277751</v>
       </c>
       <c r="R22">
-        <v>878.8346274821329</v>
+        <v>1029.777446049976</v>
       </c>
       <c r="S22">
-        <v>0.005896946108484703</v>
+        <v>0.007607440278118811</v>
       </c>
       <c r="T22">
-        <v>0.006401652180600701</v>
+        <v>0.007973792936634387</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H23">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I23">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J23">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>95.53539599999999</v>
       </c>
       <c r="O23">
-        <v>0.3219020813407859</v>
+        <v>0.3504595127507141</v>
       </c>
       <c r="P23">
-        <v>0.3413768279472386</v>
+        <v>0.3643589687437936</v>
       </c>
       <c r="Q23">
-        <v>235.791473464932</v>
+        <v>370.2570231977759</v>
       </c>
       <c r="R23">
-        <v>2122.123261184388</v>
+        <v>3332.313208779984</v>
       </c>
       <c r="S23">
-        <v>0.01423936439853191</v>
+        <v>0.0246173324352939</v>
       </c>
       <c r="T23">
-        <v>0.0154580788895243</v>
+        <v>0.02580283305751657</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H24">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I24">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J24">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.06250533333333</v>
+        <v>16.16670066666667</v>
       </c>
       <c r="N24">
-        <v>51.187516</v>
+        <v>48.500102</v>
       </c>
       <c r="O24">
-        <v>0.1724739586473769</v>
+        <v>0.1779164877830196</v>
       </c>
       <c r="P24">
-        <v>0.1829084566999494</v>
+        <v>0.1849727733236046</v>
       </c>
       <c r="Q24">
-        <v>126.3362096771942</v>
+        <v>187.9670168668009</v>
       </c>
       <c r="R24">
-        <v>1137.025887094748</v>
+        <v>1691.703151801208</v>
       </c>
       <c r="S24">
-        <v>0.007629399400612553</v>
+        <v>0.01249739032933576</v>
       </c>
       <c r="T24">
-        <v>0.008282382170549512</v>
+        <v>0.01309922905619741</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H25">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I25">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J25">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.930832</v>
+        <v>10.399077</v>
       </c>
       <c r="N25">
-        <v>33.861664</v>
+        <v>20.798154</v>
       </c>
       <c r="O25">
-        <v>0.171142957097216</v>
+        <v>0.1144430947397913</v>
       </c>
       <c r="P25">
-        <v>0.1209979539451033</v>
+        <v>0.07932132236322763</v>
       </c>
       <c r="Q25">
-        <v>125.3612584889653</v>
+        <v>120.908002329036</v>
       </c>
       <c r="R25">
-        <v>752.1675509337919</v>
+        <v>725.448013974216</v>
       </c>
       <c r="S25">
-        <v>0.007570522440237488</v>
+        <v>0.008038827897752749</v>
       </c>
       <c r="T25">
-        <v>0.005478977377584376</v>
+        <v>0.005617303303652193</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.404317666666667</v>
+        <v>11.62680133333333</v>
       </c>
       <c r="H26">
-        <v>22.212953</v>
+        <v>34.880404</v>
       </c>
       <c r="I26">
-        <v>0.04423508024310419</v>
+        <v>0.0702430139278442</v>
       </c>
       <c r="J26">
-        <v>0.04528157046415997</v>
+        <v>0.07081706578124704</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.90151933333334</v>
+        <v>22.614852</v>
       </c>
       <c r="N26">
-        <v>59.70455800000001</v>
+        <v>67.84455600000001</v>
       </c>
       <c r="O26">
-        <v>0.2011717362403739</v>
+        <v>0.2488791697534654</v>
       </c>
       <c r="P26">
-        <v>0.2133424204787085</v>
+        <v>0.258749882180219</v>
       </c>
       <c r="Q26">
-        <v>147.3571711933082</v>
+        <v>262.938391386736</v>
       </c>
       <c r="R26">
-        <v>1326.214540739774</v>
+        <v>2366.445522480624</v>
       </c>
       <c r="S26">
-        <v>0.008898847895237531</v>
+        <v>0.01748202298734297</v>
       </c>
       <c r="T26">
-        <v>0.009660479845901085</v>
+        <v>0.01832390742724649</v>
       </c>
     </row>
   </sheetData>
